--- a/CSVs/TableS10.xlsx
+++ b/CSVs/TableS10.xlsx
@@ -40,30 +40,30 @@
     <t>score</t>
   </si>
   <si>
+    <t>typical_sleep_duration</t>
+  </si>
+  <si>
+    <t>typical_sleep_duration:np.power(sleep_delta, 2)</t>
+  </si>
+  <si>
     <t>np.power(typical_sleep_duration, 2)</t>
   </si>
   <si>
     <t>typical_sleep_duration:sleep_delta</t>
   </si>
   <si>
-    <t>typical_sleep_duration</t>
-  </si>
-  <si>
-    <t>typical_sleep_duration:np.power(sleep_delta, 2)</t>
-  </si>
-  <si>
     <t>sleep_delta</t>
   </si>
   <si>
+    <t>np.power(typical_sleep_duration, 2):np.power(sleep_delta, 2)</t>
+  </si>
+  <si>
+    <t>np.power(sleep_delta, 2)</t>
+  </si>
+  <si>
     <t>np.power(typical_sleep_duration, 2):sleep_delta</t>
   </si>
   <si>
-    <t>np.power(sleep_delta, 2)</t>
-  </si>
-  <si>
-    <t>np.power(typical_sleep_duration, 2):np.power(sleep_delta, 2)</t>
-  </si>
-  <si>
     <t>STM</t>
   </si>
   <si>
@@ -76,6 +76,18 @@
     <t>Overall</t>
   </si>
   <si>
+    <t xml:space="preserve">    0.0170</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0455</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0514</t>
+  </si>
+  <si>
     <t xml:space="preserve">   -0.0076</t>
   </si>
   <si>
@@ -88,18 +100,6 @@
     <t xml:space="preserve">   -0.0274</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.0170</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0355</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0455</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0514</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.0068</t>
   </si>
   <si>
@@ -124,6 +124,30 @@
     <t xml:space="preserve">   -0.0100</t>
   </si>
   <si>
+    <t xml:space="preserve">    0.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0006</t>
+  </si>
+  <si>
     <t xml:space="preserve">    0.0081</t>
   </si>
   <si>
@@ -148,55 +172,43 @@
     <t xml:space="preserve">    0.0049</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0010</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0006</t>
+    <t xml:space="preserve">    0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.009</t>
   </si>
   <si>
     <t xml:space="preserve">    0.004</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.009</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.007</t>
   </si>
   <si>
     <t xml:space="preserve">    0.002</t>
   </si>
   <si>
+    <t xml:space="preserve">    0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">    0.005</t>
   </si>
   <si>
     <t xml:space="preserve">    0.006</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.000</t>
+    <t xml:space="preserve">    2.126</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    4.545</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5.243</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    6.762</t>
   </si>
   <si>
     <t xml:space="preserve">   -2.001</t>
@@ -211,18 +223,6 @@
     <t xml:space="preserve">   -7.611</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4.545</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5.243</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6.762</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.989</t>
   </si>
   <si>
@@ -244,6 +244,30 @@
     <t xml:space="preserve">   -4.605</t>
   </si>
   <si>
+    <t xml:space="preserve">    1.481</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.059</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -1.389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.508</t>
+  </si>
+  <si>
     <t xml:space="preserve">    1.535</t>
   </si>
   <si>
@@ -268,39 +292,15 @@
     <t xml:space="preserve">    2.641</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.481</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.059</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -1.389</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.914</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.508</t>
+    <t xml:space="preserve"> 0.034</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.045</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.034</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.323</t>
   </si>
   <si>
@@ -319,6 +319,30 @@
     <t xml:space="preserve"> 0.004</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.139</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.290</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.165</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.361</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.271</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.012</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 0.125</t>
   </si>
   <si>
@@ -343,28 +367,13 @@
     <t xml:space="preserve"> 0.008</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.139</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.290</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.165</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.361</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.690</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.271</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.012</t>
+    <t xml:space="preserve">    0.020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.028</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.036</t>
   </si>
   <si>
     <t xml:space="preserve">   -0.015</t>
@@ -379,15 +388,6 @@
     <t xml:space="preserve">   -0.034</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.028</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.036</t>
-  </si>
-  <si>
     <t xml:space="preserve">   -0.007</t>
   </si>
   <si>
@@ -409,6 +409,15 @@
     <t xml:space="preserve">   -0.014</t>
   </si>
   <si>
+    <t xml:space="preserve">   -0.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">   -0.002</t>
   </si>
   <si>
@@ -418,31 +427,22 @@
     <t xml:space="preserve"> 3.79e-05</t>
   </si>
   <si>
-    <t xml:space="preserve">   -0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.000</t>
+    <t xml:space="preserve">    0.033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.051</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.066</t>
   </si>
   <si>
     <t xml:space="preserve">   -0.016</t>
   </si>
   <si>
     <t xml:space="preserve">   -0.020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.033</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.051</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.063</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.066</t>
   </si>
   <si>
     <t xml:space="preserve">    0.017</t>
@@ -870,10 +870,10 @@
         <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>117</v>
+        <v>57</v>
       </c>
       <c r="H2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -894,10 +894,10 @@
         <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -909,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>63</v>
@@ -918,10 +918,10 @@
         <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -942,10 +942,10 @@
         <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -959,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
@@ -968,10 +968,10 @@
         <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>120</v>
       </c>
       <c r="H6" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -983,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
         <v>66</v>
@@ -995,7 +995,7 @@
         <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1019,7 +1019,7 @@
         <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1031,7 +1031,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -1069,7 +1069,7 @@
         <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1158,10 +1158,10 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G14" t="s">
         <v>127</v>
@@ -1191,7 +1191,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1215,7 +1215,7 @@
         <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1265,7 +1265,7 @@
         <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>145</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1286,10 +1286,10 @@
         <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1301,7 +1301,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E20" t="s">
         <v>78</v>
@@ -1310,10 +1310,10 @@
         <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1334,10 +1334,10 @@
         <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1351,7 +1351,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
         <v>80</v>
@@ -1360,10 +1360,10 @@
         <v>105</v>
       </c>
       <c r="G22" t="s">
-        <v>133</v>
+        <v>58</v>
       </c>
       <c r="H22" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1375,7 +1375,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
@@ -1384,10 +1384,10 @@
         <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>60</v>
+        <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>82</v>
@@ -1408,10 +1408,10 @@
         <v>107</v>
       </c>
       <c r="G24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1423,7 +1423,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
@@ -1432,10 +1432,10 @@
         <v>108</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H25" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1458,10 +1458,10 @@
         <v>109</v>
       </c>
       <c r="G26" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H26" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1485,7 +1485,7 @@
         <v>135</v>
       </c>
       <c r="H27" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1497,7 +1497,7 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
@@ -1506,10 +1506,10 @@
         <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="H28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1530,10 +1530,10 @@
         <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="H29" t="s">
-        <v>148</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1547,7 +1547,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1556,10 +1556,10 @@
         <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>60</v>
+        <v>136</v>
       </c>
       <c r="H30" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1571,7 +1571,7 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E31" t="s">
         <v>89</v>
@@ -1580,10 +1580,10 @@
         <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>136</v>
+        <v>58</v>
       </c>
       <c r="H31" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1595,7 +1595,7 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
@@ -1604,10 +1604,10 @@
         <v>115</v>
       </c>
       <c r="G32" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H32" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1619,7 +1619,7 @@
         <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E33" t="s">
         <v>91</v>
@@ -1628,10 +1628,10 @@
         <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/CSVs/TableS10.xlsx
+++ b/CSVs/TableS10.xlsx
@@ -40,30 +40,30 @@
     <t>score</t>
   </si>
   <si>
+    <t>np.power(typical_sleep_duration, 2)</t>
+  </si>
+  <si>
+    <t>np.power(typical_sleep_duration, 2):sleep_delta</t>
+  </si>
+  <si>
     <t>typical_sleep_duration</t>
   </si>
   <si>
     <t>typical_sleep_duration:np.power(sleep_delta, 2)</t>
   </si>
   <si>
-    <t>np.power(typical_sleep_duration, 2)</t>
+    <t>sleep_delta</t>
+  </si>
+  <si>
+    <t>np.power(typical_sleep_duration, 2):np.power(sleep_delta, 2)</t>
+  </si>
+  <si>
+    <t>np.power(sleep_delta, 2)</t>
   </si>
   <si>
     <t>typical_sleep_duration:sleep_delta</t>
   </si>
   <si>
-    <t>sleep_delta</t>
-  </si>
-  <si>
-    <t>np.power(typical_sleep_duration, 2):np.power(sleep_delta, 2)</t>
-  </si>
-  <si>
-    <t>np.power(sleep_delta, 2)</t>
-  </si>
-  <si>
-    <t>np.power(typical_sleep_duration, 2):sleep_delta</t>
-  </si>
-  <si>
     <t>STM</t>
   </si>
   <si>
@@ -76,6 +76,18 @@
     <t>Overall</t>
   </si>
   <si>
+    <t xml:space="preserve">   -0.0076</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0233</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.0274</t>
+  </si>
+  <si>
     <t xml:space="preserve">    0.0170</t>
   </si>
   <si>
@@ -88,18 +100,6 @@
     <t xml:space="preserve">    0.0514</t>
   </si>
   <si>
-    <t xml:space="preserve">   -0.0076</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.0274</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.0068</t>
   </si>
   <si>
@@ -124,6 +124,30 @@
     <t xml:space="preserve">   -0.0100</t>
   </si>
   <si>
+    <t xml:space="preserve">    0.0039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0041</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5.733e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.0006</t>
+  </si>
+  <si>
     <t xml:space="preserve">    0.0018</t>
   </si>
   <si>
@@ -136,18 +160,6 @@
     <t xml:space="preserve">    0.0010</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.0007</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0003</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0006</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.0081</t>
   </si>
   <si>
@@ -160,16 +172,7 @@
     <t xml:space="preserve">   -0.0012</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.0039</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0041</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 5.733e-05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.0049</t>
+    <t xml:space="preserve">    0.004</t>
   </si>
   <si>
     <t xml:space="preserve">    0.008</t>
@@ -178,27 +181,36 @@
     <t xml:space="preserve">    0.009</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.004</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.007</t>
   </si>
   <si>
     <t xml:space="preserve">    0.002</t>
   </si>
   <si>
+    <t xml:space="preserve">    0.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">    0.001</t>
   </si>
   <si>
-    <t xml:space="preserve">    0.000</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.005</t>
   </si>
   <si>
     <t xml:space="preserve">    0.006</t>
   </si>
   <si>
+    <t xml:space="preserve">   -2.001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -6.285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -4.596</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -7.611</t>
+  </si>
+  <si>
     <t xml:space="preserve">    2.126</t>
   </si>
   <si>
@@ -211,18 +223,6 @@
     <t xml:space="preserve">    6.762</t>
   </si>
   <si>
-    <t xml:space="preserve">   -2.001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -6.285</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -4.596</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -7.611</t>
-  </si>
-  <si>
     <t xml:space="preserve">    0.989</t>
   </si>
   <si>
@@ -244,6 +244,30 @@
     <t xml:space="preserve">   -4.605</t>
   </si>
   <si>
+    <t xml:space="preserve">    1.979</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.146</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.641</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.710</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    0.398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1.100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    2.508</t>
+  </si>
+  <si>
     <t xml:space="preserve">    1.481</t>
   </si>
   <si>
@@ -256,18 +280,6 @@
     <t xml:space="preserve">    0.914</t>
   </si>
   <si>
-    <t xml:space="preserve">    2.710</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.398</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.508</t>
-  </si>
-  <si>
     <t xml:space="preserve">    1.535</t>
   </si>
   <si>
@@ -280,27 +292,15 @@
     <t xml:space="preserve">   -0.236</t>
   </si>
   <si>
-    <t xml:space="preserve">    1.979</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2.641</t>
+    <t xml:space="preserve"> 0.045</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.000</t>
   </si>
   <si>
     <t xml:space="preserve"> 0.034</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.045</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.323</t>
   </si>
   <si>
@@ -319,6 +319,30 @@
     <t xml:space="preserve"> 0.004</t>
   </si>
   <si>
+    <t xml:space="preserve"> 0.048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.979</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.008</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.690</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.271</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.012</t>
+  </si>
+  <si>
     <t xml:space="preserve"> 0.139</t>
   </si>
   <si>
@@ -331,18 +355,6 @@
     <t xml:space="preserve"> 0.361</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.007</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.690</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.271</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.012</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 0.125</t>
   </si>
   <si>
@@ -355,16 +367,16 @@
     <t xml:space="preserve"> 0.814</t>
   </si>
   <si>
-    <t xml:space="preserve"> 0.048</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.032</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.979</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0.008</t>
+    <t xml:space="preserve">   -0.015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.031</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.027</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.034</t>
   </si>
   <si>
     <t xml:space="preserve">    0.020</t>
@@ -376,18 +388,6 @@
     <t xml:space="preserve">    0.036</t>
   </si>
   <si>
-    <t xml:space="preserve">   -0.015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.031</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.027</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.034</t>
-  </si>
-  <si>
     <t xml:space="preserve">   -0.007</t>
   </si>
   <si>
@@ -409,22 +409,28 @@
     <t xml:space="preserve">   -0.014</t>
   </si>
   <si>
+    <t xml:space="preserve"> 3.79e-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">   -0.001</t>
   </si>
   <si>
-    <t xml:space="preserve">   -0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.000</t>
-  </si>
-  <si>
     <t xml:space="preserve">   -0.002</t>
   </si>
   <si>
     <t xml:space="preserve">   -0.018</t>
   </si>
   <si>
-    <t xml:space="preserve"> 3.79e-05</t>
+    <t xml:space="preserve">   -0.016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   -0.020</t>
   </si>
   <si>
     <t xml:space="preserve">    0.033</t>
@@ -437,12 +443,6 @@
   </si>
   <si>
     <t xml:space="preserve">    0.066</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   -0.020</t>
   </si>
   <si>
     <t xml:space="preserve">    0.017</t>
@@ -870,10 +870,10 @@
         <v>92</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="H2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -894,10 +894,10 @@
         <v>93</v>
       </c>
       <c r="G3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -909,7 +909,7 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
         <v>63</v>
@@ -918,10 +918,10 @@
         <v>93</v>
       </c>
       <c r="G4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H4" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -942,10 +942,10 @@
         <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -959,7 +959,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
@@ -968,10 +968,10 @@
         <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -983,7 +983,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
         <v>66</v>
@@ -995,7 +995,7 @@
         <v>121</v>
       </c>
       <c r="H7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1019,7 +1019,7 @@
         <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1031,7 +1031,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E9" t="s">
         <v>68</v>
@@ -1069,7 +1069,7 @@
         <v>124</v>
       </c>
       <c r="H10" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1158,10 +1158,10 @@
         <v>56</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F14" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
         <v>127</v>
@@ -1191,7 +1191,7 @@
         <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1215,7 +1215,7 @@
         <v>129</v>
       </c>
       <c r="H16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1253,7 +1253,7 @@
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E18" t="s">
         <v>76</v>
@@ -1265,7 +1265,7 @@
         <v>131</v>
       </c>
       <c r="H18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1277,7 +1277,7 @@
         <v>37</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
         <v>77</v>
@@ -1286,10 +1286,10 @@
         <v>102</v>
       </c>
       <c r="G19" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1301,7 +1301,7 @@
         <v>38</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E20" t="s">
         <v>78</v>
@@ -1313,7 +1313,7 @@
         <v>132</v>
       </c>
       <c r="H20" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1325,7 +1325,7 @@
         <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
         <v>79</v>
@@ -1334,10 +1334,10 @@
         <v>104</v>
       </c>
       <c r="G21" t="s">
-        <v>131</v>
+        <v>58</v>
       </c>
       <c r="H21" t="s">
-        <v>148</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1351,7 +1351,7 @@
         <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
         <v>80</v>
@@ -1360,10 +1360,10 @@
         <v>105</v>
       </c>
       <c r="G22" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" t="s">
         <v>58</v>
-      </c>
-      <c r="H22" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1375,7 +1375,7 @@
         <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
         <v>81</v>
@@ -1387,7 +1387,7 @@
         <v>133</v>
       </c>
       <c r="H23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1399,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
         <v>82</v>
@@ -1411,7 +1411,7 @@
         <v>133</v>
       </c>
       <c r="H24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1423,7 +1423,7 @@
         <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
         <v>83</v>
@@ -1432,10 +1432,10 @@
         <v>108</v>
       </c>
       <c r="G25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H25" t="s">
         <v>58</v>
-      </c>
-      <c r="H25" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1449,7 +1449,7 @@
         <v>44</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
         <v>84</v>
@@ -1461,7 +1461,7 @@
         <v>134</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1473,7 +1473,7 @@
         <v>45</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E27" t="s">
         <v>85</v>
@@ -1482,10 +1482,10 @@
         <v>110</v>
       </c>
       <c r="G27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1497,7 +1497,7 @@
         <v>46</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" t="s">
         <v>86</v>
@@ -1506,10 +1506,10 @@
         <v>111</v>
       </c>
       <c r="G28" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="H28" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1521,7 +1521,7 @@
         <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E29" t="s">
         <v>87</v>
@@ -1530,10 +1530,10 @@
         <v>112</v>
       </c>
       <c r="G29" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H29" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1547,7 +1547,7 @@
         <v>48</v>
       </c>
       <c r="D30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E30" t="s">
         <v>88</v>
@@ -1556,10 +1556,10 @@
         <v>113</v>
       </c>
       <c r="G30" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H30" t="s">
-        <v>52</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1571,7 +1571,7 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E31" t="s">
         <v>89</v>
@@ -1580,10 +1580,10 @@
         <v>114</v>
       </c>
       <c r="G31" t="s">
-        <v>58</v>
+        <v>136</v>
       </c>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1595,7 +1595,7 @@
         <v>50</v>
       </c>
       <c r="D32" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E32" t="s">
         <v>90</v>
@@ -1604,7 +1604,7 @@
         <v>115</v>
       </c>
       <c r="G32" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H32" t="s">
         <v>54</v>
@@ -1619,7 +1619,7 @@
         <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E33" t="s">
         <v>91</v>
@@ -1628,10 +1628,10 @@
         <v>116</v>
       </c>
       <c r="G33" t="s">
-        <v>57</v>
+        <v>128</v>
       </c>
       <c r="H33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
